--- a/RNN_python/schd_sam_output_data/anom_data9.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data9.xlsx
@@ -427,7 +427,7 @@
         <v>43269</v>
       </c>
       <c r="D2" t="n">
-        <v>20.49954844976318</v>
+        <v>10.17251460073787</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43269.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5.85570360883861</v>
+        <v>4.339701112615046</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43269.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9246490487896466</v>
+        <v>7.013095862712007</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43269.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4.583196143076236</v>
+        <v>6.97711543770555</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43269.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>5.576989254508391</v>
+        <v>6.852989753794247</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43269.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.555331372414656</v>
+        <v>5.935158276031729</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43269.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.366735553060778</v>
+        <v>16.16585809533979</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43269.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>18.85925349829222</v>
+        <v>35.70668787794713</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43269.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>438.1457834980587</v>
+        <v>447.0487340902285</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43269.375</v>
       </c>
       <c r="D11" t="n">
-        <v>368.3306218074486</v>
+        <v>401.0310591555549</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43269.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>395.7960613952431</v>
+        <v>413.7923765483498</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43269.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>214.8421930412575</v>
+        <v>235.8834348053772</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43269.5</v>
       </c>
       <c r="D14" t="n">
-        <v>247.2326423465959</v>
+        <v>268.9261818881461</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43269.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>192.683095238342</v>
+        <v>190.1189538840914</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43269.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>155.235405742814</v>
+        <v>169.4892711525993</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43269.625</v>
       </c>
       <c r="D17" t="n">
-        <v>113.253787109011</v>
+        <v>116.7775044854425</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43269.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82.52967575745791</v>
+        <v>89.32412970055117</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43269.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>54.85081079801652</v>
+        <v>61.50342754362541</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43269.75</v>
       </c>
       <c r="D20" t="n">
-        <v>32.79609850659078</v>
+        <v>42.65651382995448</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43269.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>16.47030869868881</v>
+        <v>29.36843589358608</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43269.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>5.713886885955674</v>
+        <v>20.64330152083714</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43269.875</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5515240072698049</v>
+        <v>15.14812244032088</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43269.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.770223883068965</v>
+        <v>11.80755531843238</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43269.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>3.63835482350035</v>
+        <v>1.035996122660606</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data9.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data9.xlsx
@@ -417,247 +417,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43269</v>
+        <v>43374</v>
       </c>
       <c r="D2" t="n">
-        <v>10.17251460073787</v>
+        <v>13.43598345029207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43269.04166666666</v>
+        <v>43374.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.339701112615046</v>
+        <v>4.149748338025816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43269.08333333334</v>
+        <v>43374.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7.013095862712007</v>
+        <v>3.63545513035865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43269.125</v>
+        <v>43374.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6.97711543770555</v>
+        <v>3.259393297199665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43269.16666666666</v>
+        <v>43374.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.852989753794247</v>
+        <v>3.762030791170915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43269.20833333334</v>
+        <v>43374.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5.935158276031729</v>
+        <v>6.722582069934063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43269.25</v>
+        <v>43374.25</v>
       </c>
       <c r="D8" t="n">
-        <v>16.16585809533979</v>
+        <v>19.38448704111392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43269.29166666666</v>
+        <v>43374.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35.70668787794713</v>
+        <v>49.47070369500739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43374.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>447.0487340902285</v>
+        <v>309.8379260770182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43269.375</v>
+        <v>43374.375</v>
       </c>
       <c r="D11" t="n">
-        <v>401.0310591555549</v>
+        <v>310.8356551693887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43269.41666666666</v>
+        <v>43374.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>413.7923765483498</v>
+        <v>296.8956776105278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43269.45833333334</v>
+        <v>43374.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>235.8834348053772</v>
+        <v>198.6102530380859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43269.5</v>
+        <v>43374.5</v>
       </c>
       <c r="D14" t="n">
-        <v>268.9261818881461</v>
+        <v>175.9602031809089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43269.54166666666</v>
+        <v>43374.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>190.1189538840914</v>
+        <v>145.550392249005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43269.58333333334</v>
+        <v>43374.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>169.4892711525993</v>
+        <v>109.2844408355609</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43269.625</v>
+        <v>43374.625</v>
       </c>
       <c r="D17" t="n">
-        <v>116.7775044854425</v>
+        <v>75.26979978641768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43374.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>89.32412970055117</v>
+        <v>50.75533851687332</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43374.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>61.50342754362541</v>
+        <v>33.96130786791478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43269.75</v>
+        <v>43374.75</v>
       </c>
       <c r="D20" t="n">
-        <v>42.65651382995448</v>
+        <v>22.21359151397687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43269.79166666666</v>
+        <v>43374.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>29.36843589358608</v>
+        <v>13.85490192785554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43269.83333333334</v>
+        <v>43374.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>20.64330152083714</v>
+        <v>7.872145361062564</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43269.875</v>
+        <v>43374.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15.14812244032088</v>
+        <v>3.584816781145634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43269.91666666666</v>
+        <v>43374.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11.80755531843238</v>
+        <v>0.5045687338728442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43269.95833333334</v>
+        <v>43374.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.035996122660606</v>
+        <v>2.44468585948205</v>
       </c>
     </row>
   </sheetData>
@@ -706,244 +708,246 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43269</v>
+        <v>43374</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43269.04166666666</v>
+        <v>43374.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43269.08333333334</v>
+        <v>43374.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43269.125</v>
+        <v>43374.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43269.16666666666</v>
+        <v>43374.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43269.20833333334</v>
+        <v>43374.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43269.25</v>
+        <v>43374.25</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43269.29166666666</v>
+        <v>43374.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43374.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>163</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43269.375</v>
+        <v>43374.375</v>
       </c>
       <c r="D11" t="n">
-        <v>199</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43269.41666666666</v>
+        <v>43374.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>173</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43269.45833333334</v>
+        <v>43374.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43269.5</v>
+        <v>43374.5</v>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43269.54166666666</v>
+        <v>43374.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43269.58333333334</v>
+        <v>43374.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43269.625</v>
+        <v>43374.625</v>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43374.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43374.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43269.75</v>
+        <v>43374.75</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43269.79166666666</v>
+        <v>43374.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43269.83333333334</v>
+        <v>43374.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43269.875</v>
+        <v>43374.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43269.91666666666</v>
+        <v>43374.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43269.95833333334</v>
+        <v>43374.95833333334</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>

--- a/RNN_python/schd_sam_output_data/anom_data9.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data9.xlsx
@@ -417,249 +417,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43374</v>
+        <v>43291</v>
       </c>
       <c r="D2" t="n">
-        <v>13.43598345029207</v>
+        <v>3.776632575359798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43374.04166666666</v>
+        <v>43291.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.149748338025816</v>
+        <v>-6.299575031225203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43374.08333333334</v>
+        <v>43291.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3.63545513035865</v>
+        <v>-6.388111174533307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43374.125</v>
+        <v>43291.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.259393297199665</v>
+        <v>-6.314249530116044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43374.16666666666</v>
+        <v>43291.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>3.762030791170915</v>
+        <v>-6.827189968618853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43374.20833333334</v>
+        <v>43291.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>6.722582069934063</v>
+        <v>-8.610304633844493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43374.25</v>
+        <v>43291.25</v>
       </c>
       <c r="D8" t="n">
-        <v>19.38448704111392</v>
+        <v>-10.21034380836218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43374.29166666666</v>
+        <v>43291.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>49.47070369500739</v>
+        <v>11.77550922532073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43374.33333333334</v>
+        <v>43291.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>309.8379260770182</v>
+        <v>312.9306003674569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43374.375</v>
+        <v>43291.375</v>
       </c>
       <c r="D11" t="n">
-        <v>310.8356551693887</v>
+        <v>362.3087031034602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43374.41666666666</v>
+        <v>43291.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>296.8956776105278</v>
+        <v>359.6317484057943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43374.45833333334</v>
+        <v>43291.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>198.6102530380859</v>
+        <v>222.7578205739563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43374.5</v>
+        <v>43291.5</v>
       </c>
       <c r="D14" t="n">
-        <v>175.9602031809089</v>
+        <v>206.0606272950825</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43374.54166666666</v>
+        <v>43291.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>145.550392249005</v>
+        <v>161.7666751611641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43374.58333333334</v>
+        <v>43291.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>109.2844408355609</v>
+        <v>134.5479365855019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43374.625</v>
+        <v>43291.625</v>
       </c>
       <c r="D17" t="n">
-        <v>75.26979978641768</v>
+        <v>96.90107665030821</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43374.66666666666</v>
+        <v>43291.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>50.75533851687332</v>
+        <v>71.72671811103336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43374.70833333334</v>
+        <v>43291.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>33.96130786791478</v>
+        <v>49.76922465816146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43374.75</v>
+        <v>43291.75</v>
       </c>
       <c r="D20" t="n">
-        <v>22.21359151397687</v>
+        <v>33.94027626934432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43374.79166666666</v>
+        <v>43291.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>13.85490192785554</v>
+        <v>22.35393302803729</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43374.83333333334</v>
+        <v>43291.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>7.872145361062564</v>
+        <v>14.10676830366106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43374.875</v>
+        <v>43291.875</v>
       </c>
       <c r="D23" t="n">
-        <v>3.584816781145634</v>
+        <v>8.414218906652138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43374.91666666666</v>
+        <v>43291.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5045687338728442</v>
+        <v>4.648386745833037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43374.95833333334</v>
+        <v>43291.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>2.44468585948205</v>
+        <v>-7.18476600295557</v>
       </c>
     </row>
   </sheetData>
@@ -708,76 +706,74 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43374</v>
+        <v>43291</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43374.04166666666</v>
+        <v>43291.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43374.08333333334</v>
+        <v>43291.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43374.125</v>
+        <v>43291.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43374.16666666666</v>
+        <v>43291.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43374.20833333334</v>
+        <v>43291.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43374.25</v>
+        <v>43291.25</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
@@ -787,167 +783,167 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43374.29166666666</v>
+        <v>43291.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43374.33333333334</v>
+        <v>43291.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43374.375</v>
+        <v>43291.375</v>
       </c>
       <c r="D11" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43374.41666666666</v>
+        <v>43291.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>408</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43374.45833333334</v>
+        <v>43291.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43374.5</v>
+        <v>43291.5</v>
       </c>
       <c r="D14" t="n">
-        <v>245</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43374.54166666666</v>
+        <v>43291.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43374.58333333334</v>
+        <v>43291.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43374.625</v>
+        <v>43291.625</v>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43374.66666666666</v>
+        <v>43291.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43374.70833333334</v>
+        <v>43291.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43374.75</v>
+        <v>43291.75</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43374.79166666666</v>
+        <v>43291.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43374.83333333334</v>
+        <v>43291.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43374.875</v>
+        <v>43291.875</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43374.91666666666</v>
+        <v>43291.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43374.95833333334</v>
+        <v>43291.95833333334</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>

--- a/RNN_python/schd_sam_output_data/anom_data9.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data9.xlsx
@@ -417,247 +417,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43291</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>3.776632575359798</v>
+        <v>-4.349709636980663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43291.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.299575031225203</v>
+        <v>-4.755874317574467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43291.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.388111174533307</v>
+        <v>-0.04183117681061788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43291.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.314249530116044</v>
+        <v>3.695498983242103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43291.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.827189968618853</v>
+        <v>5.126793479458627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43291.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.610304633844493</v>
+        <v>5.996847477535781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43291.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.21034380836218</v>
+        <v>11.09832140674713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43291.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>11.77550922532073</v>
+        <v>35.64106195003797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43291.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>312.9306003674569</v>
+        <v>430.5980954581644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43291.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>362.3087031034602</v>
+        <v>342.1310380543715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43291.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>359.6317484057943</v>
+        <v>330.7106385688448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43291.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>222.7578205739563</v>
+        <v>206.2594782510013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43291.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>206.0606272950825</v>
+        <v>202.9779272743813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43291.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>161.7666751611641</v>
+        <v>155.2506459753933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43291.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>134.5479365855019</v>
+        <v>113.0335169102553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43291.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>96.90107665030821</v>
+        <v>81.96097253930722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43291.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>71.72671811103336</v>
+        <v>58.29622608887063</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43291.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>49.76922465816146</v>
+        <v>40.46324637232105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43291.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>33.94027626934432</v>
+        <v>27.45317928972639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43291.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>22.35393302803729</v>
+        <v>18.3864190716389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43291.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>14.10676830366106</v>
+        <v>12.43494099261429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43291.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>8.414218906652138</v>
+        <v>8.843807642819158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43291.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>4.648386745833037</v>
+        <v>6.933800840266358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43291.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.18476600295557</v>
+        <v>3.211234524971374</v>
       </c>
     </row>
   </sheetData>
@@ -706,247 +708,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43291</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43291.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43291.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43291.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43291.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43291.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43291.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43291.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43291.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43291.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43291.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43291.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43291.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43291.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43291.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43291.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43291.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43291.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43291.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43291.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43291.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43291.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43291.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43291.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data9.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data9.xlsx
@@ -417,249 +417,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43235</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.349709636980663</v>
+        <v>-303.5186384962125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43235.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.755874317574467</v>
+        <v>154.5446440401333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43235.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04183117681061788</v>
+        <v>129.5965765949607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43235.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.695498983242103</v>
+        <v>131.9066742179385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43235.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>5.126793479458627</v>
+        <v>132.6455684216656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43235.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5.996847477535781</v>
+        <v>133.2898364191445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43235.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11.09832140674713</v>
+        <v>133.9742399901714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43235.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>35.64106195003797</v>
+        <v>134.6980576651271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43235.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>430.5980954581644</v>
+        <v>135.4467857183922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43235.375</v>
       </c>
       <c r="D11" t="n">
-        <v>342.1310380543715</v>
+        <v>136.206077835901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43235.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>330.7106385688448</v>
+        <v>136.9619200168666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43235.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>206.2594782510013</v>
+        <v>137.7002676527003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43235.5</v>
       </c>
       <c r="D14" t="n">
-        <v>202.9779272743813</v>
+        <v>138.4068050371383</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43235.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>155.2506459753933</v>
+        <v>139.0658128775664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43235.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>113.0335169102553</v>
+        <v>139.6611564897714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43235.625</v>
       </c>
       <c r="D17" t="n">
-        <v>81.96097253930722</v>
+        <v>140.1760846609565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43235.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>58.29622608887063</v>
+        <v>140.59435339333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43235.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>40.46324637232105</v>
+        <v>140.9007680994553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43235.75</v>
       </c>
       <c r="D20" t="n">
-        <v>27.45317928972639</v>
+        <v>141.08239042416</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43235.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>18.3864190716389</v>
+        <v>141.129181008378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43235.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>12.43494099261429</v>
+        <v>141.0349658211856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43235.875</v>
       </c>
       <c r="D23" t="n">
-        <v>8.843807642819158</v>
+        <v>140.7974405323442</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43235.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6.933800840266358</v>
+        <v>140.4182973160517</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43235.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>3.211234524971374</v>
+        <v>2.924550375163093</v>
       </c>
     </row>
   </sheetData>
@@ -708,56 +706,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43235</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43235.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43235.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43235.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43235.16666666666</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -767,190 +763,190 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43235.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43235.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43235.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43235.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43235.375</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43235.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43235.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43235.5</v>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43235.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43235.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43235.625</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43235.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43235.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43235.75</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43235.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43235.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43235.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43235.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43235.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
